--- a/static/hj.xlsx
+++ b/static/hj.xlsx
@@ -1,123 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiryanchi/Project/xim/src/xlsx/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305ABFA-89B2-D642-B567-6408270D639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="-21100" windowWidth="36000" windowHeight="21100" xr2:uid="{55F14EC2-F204-44AB-8307-097EAA2A6B66}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-320" yWindow="-21100" windowWidth="36000" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>LG헬로비전/짐엔진/2022-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선로번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전산화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구산산22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -177,45 +102,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="MyStyle" xfId="1" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -515,97 +540,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3813C58B-9B8A-4EB3-B320-8D00E1990ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="7" width="34.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col width="10.3984375" customWidth="1" style="6" min="1" max="1"/>
+    <col width="16" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.59765625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="15.796875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="34.19921875" customWidth="1" style="6" min="5" max="7"/>
+    <col width="11.19921875" customWidth="1" style="6" min="8" max="8"/>
+    <col width="8.59765625" customWidth="1" style="6" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" ht="45" customHeight="1" s="6">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>LG헬로비전/짐엔진/2022-04</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="42" customHeight="1" s="6">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>순번</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>작업내역</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>선로번호</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>전산화번호</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>명찰</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>전경</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>근접</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>공사번호</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="178.5" customHeight="1" s="6">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>신규</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>구산산22</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>12341123</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>사진</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>사진</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>사진</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
     </row>
-    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12341123</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
+    <row r="4" s="6"/>
+    <row r="5" s="6"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/static/hj.xlsx
+++ b/static/hj.xlsx
@@ -1,48 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiryanchi/Project/XPA/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA92AA-E7D6-1148-BC80-D34B92DF96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-320" yWindow="-21100" windowWidth="36000" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-320" yWindow="-21100" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>LG헬로비전/짐엔진/2022-04</t>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>작업내역</t>
+  </si>
+  <si>
+    <t>선로번호</t>
+  </si>
+  <si>
+    <t>전산화번호</t>
+  </si>
+  <si>
+    <t>명찰</t>
+  </si>
+  <si>
+    <t>전경</t>
+  </si>
+  <si>
+    <t>근접</t>
+  </si>
+  <si>
+    <t>공사번호</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -66,19 +110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -103,144 +134,60 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="MyStyle" xfId="1" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="MyStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -540,132 +487,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="10.3984375" customWidth="1" style="6" min="1" max="1"/>
-    <col width="16" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.59765625" customWidth="1" style="6" min="3" max="3"/>
-    <col width="15.796875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="34.19921875" customWidth="1" style="6" min="5" max="7"/>
-    <col width="11.19921875" customWidth="1" style="6" min="8" max="8"/>
-    <col width="8.59765625" customWidth="1" style="6" min="9" max="9"/>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="34.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" s="6">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>LG헬로비전/짐엔진/2022-04</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
+    <row r="1" spans="1:9" ht="45" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="42" customHeight="1" s="6">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>순번</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>작업내역</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>선로번호</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>전산화번호</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>명찰</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>전경</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>근접</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>공사번호</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
+    <row r="2" spans="1:9" ht="42" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="178.5" customHeight="1" s="6">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:9" ht="178.5" customHeight="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>구산산22</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>12341123</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>사진</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>사진</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>사진</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" s="6"/>
-    <row r="5" s="6"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>